--- a/xls/initCardConfig.xlsx
+++ b/xls/initCardConfig.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FBG\Server\kbengine\fbgServer\xls\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15810" yWindow="0" windowWidth="27765" windowHeight="13650"/>
+    <workbookView xWindow="16740" yWindow="0" windowWidth="27765" windowHeight="13650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="@球员表" sheetId="1" r:id="rId1"/>
@@ -348,6 +353,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -360,14 +433,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -402,7 +475,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -437,7 +510,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -648,7 +721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -858,7 +931,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="26.625" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="17.75" customWidth="1"/>
     <col min="4" max="4" width="13.5" customWidth="1"/>
@@ -904,8 +977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/xls/initCardConfig.xlsx
+++ b/xls/initCardConfig.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FBG\Server\kbengine\fbgServer\xls\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16740" yWindow="0" windowWidth="27765" windowHeight="13650" activeTab="2"/>
+    <workbookView xWindow="16740" yWindow="0" windowWidth="27765" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="@球员表" sheetId="1" r:id="rId1"/>
@@ -24,19 +19,19 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>id[.!][funcInt]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>前锋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -52,19 +47,19 @@
       </rPr>
       <t>d</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>initCardIdList[.][funcTupleInt]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>initCardPosList[.][funcTupleInt]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>送的球员位置</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -114,11 +109,11 @@
       </rPr>
       <t>]</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>initRoleCardId[.][funcInt]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -134,102 +129,39 @@
       </rPr>
       <t>D</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>initRoleCardIdPos[.][funcInt]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主角位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中场</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>后卫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始阵型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>球员表:InitCardConfig</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他配置:OtherConfig</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id[.!][funcInt]</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>initRoleCardIdPos[.][funcInt]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>主角位置</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>中场</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>后卫</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始阵型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,5,6,12,13,15,16,22</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,5,6,12,15,16,22,24</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,5,6,12,13,15,16,22,24</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5001,5002,5003,5004,5005,5006,5008,5009,5010,5011</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5001,5002,5004,5005,5006,5007,5008,5009,5010,5011</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5001,5002,5003,5004,5005,5006,5007,5008,5009,5011</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>球员表:InitCardConfig</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他配置:OtherConfig</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>id[.!][funcInt]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -257,30 +189,46 @@
       </rPr>
       <t>[.][funcInt]</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包大小</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>背包大小</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>5001,5002,5003,5004,5005,5006,5007,5008,5009,5011,5012</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5001,5002,5003,5004,5005,5006,5008,5009,5010,5011,5012</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5001,5002,5004,5005,5006,5007,5008,5009,5010,5011,5012</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,5,6,12,13,15,16,22,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,5,6,12,15,16,22,24,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,5,6,12,13,15,16,22,24,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -343,84 +291,16 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -433,14 +313,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -475,7 +355,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -510,7 +390,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -721,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -732,7 +612,7 @@
     <col min="3" max="3" width="22.125" customWidth="1"/>
     <col min="4" max="4" width="30.375" customWidth="1"/>
     <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="6" width="55.125" customWidth="1"/>
+    <col min="6" max="6" width="56" customWidth="1"/>
     <col min="7" max="7" width="36.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.75" customWidth="1"/>
     <col min="9" max="9" width="20.875" customWidth="1"/>
@@ -828,7 +708,7 @@
         <v>21</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -860,10 +740,10 @@
         <v>44201</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -895,10 +775,10 @@
         <v>44201</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -912,12 +792,9 @@
       <c r="Q5" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="F3:F5" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -939,14 +816,14 @@
   <sheetData>
     <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -968,7 +845,7 @@
       <c r="C7" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -977,7 +854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -989,10 +866,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
@@ -1000,7 +877,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
@@ -1020,7 +897,7 @@
       <c r="B5" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
